--- a/FPOO/Java/aula2_verde/workspace/Vendas/excel/vendas.xlsx
+++ b/FPOO/Java/aula2_verde/workspace/Vendas/excel/vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desenvolvimento-de-sistemas\FPOO\Java\aula2_verde\workspace\Vendas\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B784AB4-BE52-4A98-9787-D31F5E958C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D67E9-0D4E-48C9-B2D0-1E80297EB709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7351846A-9021-4C81-B170-FBC17DB27985}"/>
   </bookViews>
@@ -170,13 +170,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -495,7 +496,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +529,7 @@
       <c r="B2" s="2">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="6">
         <v>15.5</v>
       </c>
       <c r="D2" s="3">
@@ -543,7 +544,7 @@
       <c r="B3" s="2">
         <v>3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="6">
         <v>25.5</v>
       </c>
       <c r="D3" s="3">
@@ -558,7 +559,7 @@
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>35.5</v>
       </c>
       <c r="D4" s="3">
@@ -573,7 +574,7 @@
       <c r="B5" s="2">
         <v>2</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="6">
         <v>18</v>
       </c>
       <c r="D5" s="3">
@@ -588,7 +589,7 @@
       <c r="B6" s="2">
         <v>12</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>8.99</v>
       </c>
       <c r="D6" s="3">
@@ -603,7 +604,7 @@
       <c r="B7" s="2">
         <v>8</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>8.99</v>
       </c>
       <c r="D7" s="3">
@@ -618,7 +619,7 @@
       <c r="B8" s="2">
         <v>10</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>8.99</v>
       </c>
       <c r="D8" s="3">
@@ -633,7 +634,7 @@
       <c r="B9" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="6">
         <v>350.5</v>
       </c>
       <c r="D9" s="3">
@@ -648,7 +649,7 @@
       <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>255.9</v>
       </c>
       <c r="D10" s="3">
@@ -663,7 +664,7 @@
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="6">
         <v>435.5</v>
       </c>
       <c r="D11" s="3">

--- a/FPOO/Java/aula2_verde/workspace/Vendas/excel/vendas.xlsx
+++ b/FPOO/Java/aula2_verde/workspace/Vendas/excel/vendas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\desenvolvimento-de-sistemas\FPOO\Java\aula2_verde\workspace\Vendas\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557D67E9-0D4E-48C9-B2D0-1E80297EB709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD990A4B-DFF3-429C-B1E7-710AA4C05F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7351846A-9021-4C81-B170-FBC17DB27985}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Produto</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Produto mais vendido</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Estatísticas</t>
   </si>
 </sst>
 </file>
@@ -122,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +147,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -165,19 +177,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -493,230 +537,250 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5019C46A-E46E-423B-94F9-7C03A8790283}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C11"/>
+      <selection activeCell="A3" sqref="A3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B3" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C3" s="5">
         <v>15.5</v>
       </c>
-      <c r="D2" s="3">
-        <f>B2*C2</f>
+      <c r="D3" s="2">
+        <f>B3*C3</f>
         <v>77.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C4" s="5">
         <v>25.5</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D11" si="0">B3*C3</f>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4:D12" si="0">B4*C4</f>
         <v>76.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C5" s="5">
         <v>35.5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D5" s="2">
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C6" s="5">
         <v>18</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D6" s="2">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B7" s="1">
         <v>12</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C7" s="5">
         <v>8.99</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="2">
         <f t="shared" si="0"/>
         <v>107.88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C8" s="5">
         <v>8.99</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="2">
         <f t="shared" si="0"/>
         <v>71.92</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C9" s="5">
         <v>8.99</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
         <v>89.9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B10" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C10" s="5">
         <v>350.5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D10" s="2">
         <f t="shared" si="0"/>
         <v>1402</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C11" s="5">
         <v>255.9</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="2">
         <f t="shared" si="0"/>
         <v>511.8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C12" s="5">
         <v>435.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D12" s="2">
         <f t="shared" si="0"/>
         <v>1306.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5">
-        <f>SUM(C2:C11)</f>
+      <c r="C14" s="7">
+        <f>SUM(C3:C12)</f>
         <v>1163.3699999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5">
-        <f>AVERAGE(C2:C11)</f>
+      <c r="C15" s="4">
+        <f>AVERAGE(C3:C12)</f>
         <v>116.33699999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="5">
-        <f>MIN(C2:C11)</f>
+      <c r="C16" s="4">
+        <f>MIN(C3:C12)</f>
         <v>8.99</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
-        <f>MAX(C2:C11)</f>
+      <c r="C17" s="4">
+        <f>MAX(C3:C12)</f>
         <v>435.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
+      <c r="C18" s="4">
+        <f>MAX(B3:B12)</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A13:D13"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
